--- a/history/access_log.xlsx
+++ b/history/access_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,244 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20250701</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20250703</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0946</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20250703</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20250703</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>myface</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/access_log.xlsx
+++ b/history/access_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,23 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20250703</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/access_log.xlsx
+++ b/history/access_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,6 +761,193 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>xuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>xuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20250704</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
